--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Robo1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Robo1-Robo1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="H2">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="I2">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="J2">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N2">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O2">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P2">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q2">
-        <v>0.1708535378987778</v>
+        <v>0.09785322422500001</v>
       </c>
       <c r="R2">
-        <v>1.537681841089</v>
+        <v>0.8806790180249999</v>
       </c>
       <c r="S2">
-        <v>0.0001972516291723272</v>
+        <v>6.745616957840596E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001972516291723273</v>
+        <v>6.745616957840596E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="H3">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="I3">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="J3">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>74.544746</v>
       </c>
       <c r="O3">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P3">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q3">
-        <v>10.27088277962422</v>
+        <v>7.772904906663333</v>
       </c>
       <c r="R3">
-        <v>92.437945016618</v>
+        <v>69.95614415996999</v>
       </c>
       <c r="S3">
-        <v>0.01185780748958884</v>
+        <v>0.00535833536046886</v>
       </c>
       <c r="T3">
-        <v>0.01185780748958885</v>
+        <v>0.00535833536046886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="H4">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="I4">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="J4">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N4">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O4">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P4">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q4">
-        <v>1.719882094282111</v>
+        <v>4.024988102480001</v>
       </c>
       <c r="R4">
-        <v>15.478938848539</v>
+        <v>36.22489292232</v>
       </c>
       <c r="S4">
-        <v>0.001985616155531114</v>
+        <v>0.002774668715745706</v>
       </c>
       <c r="T4">
-        <v>0.001985616155531114</v>
+        <v>0.002774668715745706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="H5">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="I5">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="J5">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N5">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O5">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P5">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q5">
-        <v>0.003425384490333333</v>
+        <v>0.01843773318666667</v>
       </c>
       <c r="R5">
-        <v>0.030828460413</v>
+        <v>0.16593959868</v>
       </c>
       <c r="S5">
-        <v>3.954630846802648E-06</v>
+        <v>1.271024911372756E-05</v>
       </c>
       <c r="T5">
-        <v>3.954630846802649E-06</v>
+        <v>1.271024911372756E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>74.544746</v>
       </c>
       <c r="I6">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="J6">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N6">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O6">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P6">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q6">
-        <v>10.27088277962422</v>
+        <v>7.772904906663333</v>
       </c>
       <c r="R6">
-        <v>92.437945016618</v>
+        <v>69.95614415996999</v>
       </c>
       <c r="S6">
-        <v>0.01185780748958884</v>
+        <v>0.00535833536046886</v>
       </c>
       <c r="T6">
-        <v>0.01185780748958885</v>
+        <v>0.00535833536046886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.544746</v>
       </c>
       <c r="I7">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="J7">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>74.544746</v>
       </c>
       <c r="O7">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P7">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q7">
         <v>617.4354618005018</v>
@@ -880,10 +880,10 @@
         <v>5556.919156204516</v>
       </c>
       <c r="S7">
-        <v>0.7128336483208899</v>
+        <v>0.4256357574806938</v>
       </c>
       <c r="T7">
-        <v>0.7128336483208901</v>
+        <v>0.4256357574806938</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>74.544746</v>
       </c>
       <c r="I8">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="J8">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N8">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O8">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P8">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q8">
-        <v>103.3909370703909</v>
+        <v>319.7222168080107</v>
       </c>
       <c r="R8">
-        <v>930.518433633518</v>
+        <v>2877.499951272096</v>
       </c>
       <c r="S8">
-        <v>0.1193655749222507</v>
+        <v>0.2204039391220688</v>
       </c>
       <c r="T8">
-        <v>0.1193655749222508</v>
+        <v>0.2204039391220688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,40 +974,40 @@
         <v>74.544746</v>
       </c>
       <c r="I9">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="J9">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N9">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O9">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P9">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q9">
-        <v>0.2059174367006667</v>
+        <v>1.464588907411556</v>
       </c>
       <c r="R9">
-        <v>1.853256930306</v>
+        <v>13.181300166704</v>
       </c>
       <c r="S9">
-        <v>0.0002377331506489491</v>
+        <v>0.001009630070786829</v>
       </c>
       <c r="T9">
-        <v>0.0002377331506489491</v>
+        <v>0.001009630070786829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="H10">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="I10">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="J10">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N10">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O10">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P10">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q10">
-        <v>1.719882094282111</v>
+        <v>4.024988102480001</v>
       </c>
       <c r="R10">
-        <v>15.478938848539</v>
+        <v>36.22489292232</v>
       </c>
       <c r="S10">
-        <v>0.001985616155531114</v>
+        <v>0.002774668715745706</v>
       </c>
       <c r="T10">
-        <v>0.001985616155531114</v>
+        <v>0.002774668715745706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="H11">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="I11">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="J11">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,22 +1116,22 @@
         <v>74.544746</v>
       </c>
       <c r="O11">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P11">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q11">
-        <v>103.3909370703909</v>
+        <v>319.7222168080107</v>
       </c>
       <c r="R11">
-        <v>930.518433633518</v>
+        <v>2877.499951272096</v>
       </c>
       <c r="S11">
-        <v>0.1193655749222507</v>
+        <v>0.2204039391220688</v>
       </c>
       <c r="T11">
-        <v>0.1193655749222508</v>
+        <v>0.2204039391220688</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="H12">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="I12">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="J12">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N12">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O12">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P12">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q12">
-        <v>17.31304165316545</v>
+        <v>165.559483128064</v>
       </c>
       <c r="R12">
-        <v>155.817374878489</v>
+        <v>1490.035348152576</v>
       </c>
       <c r="S12">
-        <v>0.01998803018078841</v>
+        <v>0.1141302052911474</v>
       </c>
       <c r="T12">
-        <v>0.01998803018078841</v>
+        <v>0.1141302052911474</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,46 +1216,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="H13">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="I13">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="J13">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N13">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O13">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P13">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q13">
-        <v>0.03448133134033333</v>
+        <v>0.7583976644693335</v>
       </c>
       <c r="R13">
-        <v>0.310331982063</v>
+        <v>6.825578980224001</v>
       </c>
       <c r="S13">
-        <v>3.980894318349513E-05</v>
+        <v>0.0005228095636856915</v>
       </c>
       <c r="T13">
-        <v>3.980894318349514E-05</v>
+        <v>0.0005228095636856915</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,52 +1272,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="H14">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="I14">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="J14">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4133443333333333</v>
+        <v>0.312815</v>
       </c>
       <c r="N14">
-        <v>1.240033</v>
+        <v>0.938445</v>
       </c>
       <c r="O14">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="P14">
-        <v>0.01404462990513909</v>
+        <v>0.008213170494906699</v>
       </c>
       <c r="Q14">
-        <v>0.003425384490333333</v>
+        <v>0.01843773318666667</v>
       </c>
       <c r="R14">
-        <v>0.030828460413</v>
+        <v>0.16593959868</v>
       </c>
       <c r="S14">
-        <v>3.954630846802648E-06</v>
+        <v>1.271024911372756E-05</v>
       </c>
       <c r="T14">
-        <v>3.954630846802649E-06</v>
+        <v>1.271024911372756E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,22 +1334,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="H15">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="I15">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="J15">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,22 +1364,22 @@
         <v>74.544746</v>
       </c>
       <c r="O15">
-        <v>0.8442947638833785</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="P15">
-        <v>0.8442947638833787</v>
+        <v>0.6524076620340182</v>
       </c>
       <c r="Q15">
-        <v>0.2059174367006667</v>
+        <v>1.464588907411556</v>
       </c>
       <c r="R15">
-        <v>1.853256930306</v>
+        <v>13.181300166704</v>
       </c>
       <c r="S15">
-        <v>0.0002377331506489491</v>
+        <v>0.001009630070786829</v>
       </c>
       <c r="T15">
-        <v>0.0002377331506489491</v>
+        <v>0.001009630070786829</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="H16">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="I16">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="J16">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.160894333333333</v>
+        <v>12.866992</v>
       </c>
       <c r="N16">
-        <v>12.482683</v>
+        <v>38.600976</v>
       </c>
       <c r="O16">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="P16">
-        <v>0.1413790302017538</v>
+        <v>0.3378316226926476</v>
       </c>
       <c r="Q16">
-        <v>0.03448133134033333</v>
+        <v>0.7583976644693335</v>
       </c>
       <c r="R16">
-        <v>0.310331982063</v>
+        <v>6.825578980224001</v>
       </c>
       <c r="S16">
-        <v>3.980894318349513E-05</v>
+        <v>0.0005228095636856915</v>
       </c>
       <c r="T16">
-        <v>3.980894318349514E-05</v>
+        <v>0.0005228095636856915</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,52 +1458,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="H17">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="I17">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="J17">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.008287000000000001</v>
+        <v>0.05894133333333334</v>
       </c>
       <c r="N17">
-        <v>0.024861</v>
+        <v>0.176824</v>
       </c>
       <c r="O17">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="P17">
-        <v>0.0002815760097285015</v>
+        <v>0.001547544778427486</v>
       </c>
       <c r="Q17">
-        <v>6.867436900000002E-05</v>
+        <v>0.003474080775111112</v>
       </c>
       <c r="R17">
-        <v>0.0006180693210000001</v>
+        <v>0.031266726976</v>
       </c>
       <c r="S17">
-        <v>7.92850492546252E-08</v>
+        <v>2.394894841238177E-06</v>
       </c>
       <c r="T17">
-        <v>7.92850492546252E-08</v>
+        <v>2.394894841238177E-06</v>
       </c>
     </row>
   </sheetData>
